--- a/data/trans_orig/P3A_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B612EEC5-7D0A-436E-8114-194B9BA2BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C843117C-97BE-4DBA-9EBD-92E992B4847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{E7510553-94A5-4881-BFD0-42E8B4880CEB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{378AA375-7C33-4802-84A2-841BC6AE2B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="338">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,1162 +68,991 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2016 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente una persona con remuneración en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
 </sst>
 </file>
@@ -1635,8 +1464,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979F4677-47FD-45B8-9F3D-74948A10A104}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD124E26-9C78-405F-A4E8-5FDF52ED245E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1753,10 +1582,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>1057</v>
+        <v>15525</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1768,85 +1597,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>1953</v>
+        <v>13972</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>3010</v>
+        <v>29497</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>667</v>
       </c>
       <c r="D5" s="7">
-        <v>114301</v>
+        <v>678487</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>681</v>
       </c>
       <c r="I5" s="7">
-        <v>110802</v>
+        <v>673226</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>230</v>
+        <v>1348</v>
       </c>
       <c r="N5" s="7">
-        <v>225103</v>
+        <v>1351713</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,153 +1684,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687198</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381210</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7">
+        <v>34817</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
-        <v>14468</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
       <c r="I7" s="7">
-        <v>12020</v>
+        <v>15884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>26488</v>
+        <v>50701</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>563</v>
+        <v>864</v>
       </c>
       <c r="D8" s="7">
-        <v>564186</v>
+        <v>926983</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>555</v>
+        <v>893</v>
       </c>
       <c r="I8" s="7">
-        <v>562423</v>
+        <v>952509</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1118</v>
+        <v>1757</v>
       </c>
       <c r="N8" s="7">
-        <v>1126609</v>
+        <v>1879492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,153 +1839,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>574443</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153097</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>34817</v>
+        <v>24731</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>15884</v>
+        <v>22809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>50701</v>
+        <v>47540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>864</v>
+        <v>617</v>
       </c>
       <c r="D11" s="7">
-        <v>926983</v>
+        <v>653778</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>893</v>
+        <v>671</v>
       </c>
       <c r="I11" s="7">
-        <v>952509</v>
+        <v>657634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>1757</v>
+        <v>1288</v>
       </c>
       <c r="N11" s="7">
-        <v>1879492</v>
+        <v>1311412</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,49 +1994,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>693</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>680443</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1334</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1358952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,46 +2047,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>24731</v>
+        <v>57363</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>51</v>
+      </c>
+      <c r="I13" s="7">
+        <v>53619</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22809</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>112</v>
+      </c>
+      <c r="N13" s="7">
+        <v>110982</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="7">
-        <v>46</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47540</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>75</v>
@@ -2266,13 +2095,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>617</v>
+        <v>932</v>
       </c>
       <c r="D14" s="7">
-        <v>653778</v>
+        <v>883977</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -2281,37 +2110,37 @@
         <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="7">
+        <v>946</v>
+      </c>
+      <c r="I14" s="7">
+        <v>984993</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>671</v>
-      </c>
-      <c r="I14" s="7">
-        <v>657633</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1878</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1868970</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="7">
-        <v>1288</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1311412</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,78 +2149,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941340</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>693</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>680442</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1334</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1358952</v>
+        <v>1979952</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D16" s="7">
-        <v>57363</v>
+        <v>132436</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="I16" s="7">
-        <v>53619</v>
+        <v>106285</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>87</v>
@@ -2403,10 +2232,10 @@
         <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="N16" s="7">
-        <v>110982</v>
+        <v>238721</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>90</v>
@@ -2421,13 +2250,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>932</v>
+        <v>3080</v>
       </c>
       <c r="D17" s="7">
-        <v>883977</v>
+        <v>3143225</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>93</v>
@@ -2436,37 +2265,37 @@
         <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>946</v>
+        <v>3191</v>
       </c>
       <c r="I17" s="7">
-        <v>984993</v>
+        <v>3268360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>1878</v>
+        <v>6271</v>
       </c>
       <c r="N17" s="7">
-        <v>1868970</v>
+        <v>6411586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,217 +2304,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941340</v>
+        <v>3275661</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3293</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3374645</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6506</v>
       </c>
       <c r="N18" s="7">
-        <v>1979952</v>
+        <v>6650307</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>133</v>
-      </c>
-      <c r="D19" s="7">
-        <v>132436</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>102</v>
-      </c>
-      <c r="I19" s="7">
-        <v>106285</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>235</v>
-      </c>
-      <c r="N19" s="7">
-        <v>238721</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3080</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3143226</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3191</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3268361</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6271</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6411586</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275662</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3293</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3374646</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6650307</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2698,8 +2371,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7C0CDC-50F0-4CC3-BEB1-0AAF66A8DB19}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904DCEF7-A6FF-4D3C-A285-89017C1F36B2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2715,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2816,100 +2489,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>2795</v>
+        <v>30633</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>2708</v>
+        <v>27927</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>5503</v>
+        <v>58561</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>644</v>
+      </c>
+      <c r="D5" s="7">
+        <v>672836</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7">
+        <v>625</v>
+      </c>
+      <c r="I5" s="7">
+        <v>669123</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1269</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1341958</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="7">
-        <v>112970</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="7">
-        <v>97</v>
-      </c>
-      <c r="I5" s="7">
-        <v>109197</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7">
-        <v>216</v>
-      </c>
-      <c r="N5" s="7">
-        <v>222167</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,153 +2591,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>27838</v>
+        <v>42335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>25220</v>
+        <v>42544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="N7" s="7">
-        <v>53058</v>
+        <v>84879</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>525</v>
+        <v>897</v>
       </c>
       <c r="D8" s="7">
-        <v>559866</v>
+        <v>974553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>528</v>
+        <v>902</v>
       </c>
       <c r="I8" s="7">
-        <v>559925</v>
+        <v>989640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
-        <v>1053</v>
+        <v>1799</v>
       </c>
       <c r="N8" s="7">
-        <v>1119791</v>
+        <v>1964193</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,153 +2746,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1016888</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2049072</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16759</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="7">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7">
+        <v>28363</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="7">
         <v>38</v>
       </c>
-      <c r="D10" s="7">
-        <v>42335</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="7">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42544</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M10" s="7">
-        <v>76</v>
-      </c>
       <c r="N10" s="7">
-        <v>84879</v>
+        <v>45122</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>897</v>
+        <v>675</v>
       </c>
       <c r="D11" s="7">
-        <v>974553</v>
+        <v>740864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
-        <v>902</v>
+        <v>679</v>
       </c>
       <c r="I11" s="7">
-        <v>989640</v>
+        <v>746810</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
-        <v>1799</v>
+        <v>1354</v>
       </c>
       <c r="N11" s="7">
-        <v>1964193</v>
+        <v>1487674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,49 +2901,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1016888</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>775173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2049072</v>
+        <v>1532796</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,100 +2954,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>16759</v>
+        <v>41277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>28363</v>
+        <v>63031</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>45122</v>
+        <v>104308</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>675</v>
+        <v>871</v>
       </c>
       <c r="D14" s="7">
-        <v>740864</v>
+        <v>906462</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
-        <v>679</v>
+        <v>945</v>
       </c>
       <c r="I14" s="7">
-        <v>746810</v>
+        <v>988870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
-        <v>1354</v>
+        <v>1816</v>
       </c>
       <c r="N14" s="7">
-        <v>1487674</v>
+        <v>1895332</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,153 +3056,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>775173</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1532796</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="D16" s="7">
-        <v>41277</v>
+        <v>131005</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I16" s="7">
-        <v>63031</v>
+        <v>161866</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="N16" s="7">
-        <v>104308</v>
+        <v>292870</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>871</v>
+        <v>3087</v>
       </c>
       <c r="D17" s="7">
-        <v>906462</v>
+        <v>3294714</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
-        <v>945</v>
+        <v>3151</v>
       </c>
       <c r="I17" s="7">
-        <v>988870</v>
+        <v>3394442</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
-        <v>1816</v>
+        <v>6238</v>
       </c>
       <c r="N17" s="7">
-        <v>1895332</v>
+        <v>6689157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,217 +3211,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3425719</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3556308</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6982027</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>121</v>
-      </c>
-      <c r="D19" s="7">
-        <v>131005</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="7">
-        <v>145</v>
-      </c>
-      <c r="I19" s="7">
-        <v>161866</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19" s="7">
-        <v>266</v>
-      </c>
-      <c r="N19" s="7">
-        <v>292870</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3087</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3294714</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3151</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3394442</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6238</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6689157</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425719</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3556308</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6982027</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3761,8 +3278,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38E35A5-7267-4F93-ABB2-38589C2E3CAC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1157198A-0720-4374-914E-190E106F803B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3778,7 +3295,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3879,100 +3396,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>1994</v>
+        <v>13210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>3331</v>
+        <v>19248</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>5325</v>
+        <v>32457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>638</v>
       </c>
       <c r="D5" s="7">
-        <v>114552</v>
+        <v>661590</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
-        <v>113</v>
+        <v>649</v>
       </c>
       <c r="I5" s="7">
-        <v>110029</v>
+        <v>652657</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1287</v>
       </c>
       <c r="N5" s="7">
-        <v>224581</v>
+        <v>1314248</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,153 +3498,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>665</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>671905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1346705</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>11216</v>
+        <v>21829</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>15917</v>
+        <v>25485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>27133</v>
+        <v>47314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>527</v>
+        <v>928</v>
       </c>
       <c r="D8" s="7">
-        <v>547038</v>
+        <v>999629</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
-        <v>536</v>
+        <v>956</v>
       </c>
       <c r="I8" s="7">
-        <v>542628</v>
+        <v>1016474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
-        <v>1063</v>
+        <v>1884</v>
       </c>
       <c r="N8" s="7">
-        <v>1089665</v>
+        <v>2016103</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,153 +3653,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1021458</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>976</v>
       </c>
       <c r="I9" s="7">
-        <v>558545</v>
+        <v>1041959</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1089</v>
+        <v>1926</v>
       </c>
       <c r="N9" s="7">
-        <v>1116798</v>
+        <v>2063417</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>21829</v>
+        <v>17098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>25485</v>
+        <v>19679</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>47314</v>
+        <v>36777</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>928</v>
+        <v>677</v>
       </c>
       <c r="D11" s="7">
-        <v>999629</v>
+        <v>738591</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
-        <v>956</v>
+        <v>718</v>
       </c>
       <c r="I11" s="7">
-        <v>1016474</v>
+        <v>763300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
-        <v>1884</v>
+        <v>1395</v>
       </c>
       <c r="N11" s="7">
-        <v>2016103</v>
+        <v>1501891</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,49 +3808,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>693</v>
       </c>
       <c r="D12" s="7">
-        <v>1021458</v>
+        <v>755689</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>734</v>
       </c>
       <c r="I12" s="7">
-        <v>1041959</v>
+        <v>782979</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1926</v>
+        <v>1427</v>
       </c>
       <c r="N12" s="7">
-        <v>2063417</v>
+        <v>1538668</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,100 +3861,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>17098</v>
+        <v>30022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>19679</v>
+        <v>42504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>36777</v>
+        <v>72525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>677</v>
+        <v>898</v>
       </c>
       <c r="D14" s="7">
-        <v>738591</v>
+        <v>903340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
-        <v>718</v>
+        <v>923</v>
       </c>
       <c r="I14" s="7">
-        <v>763300</v>
+        <v>1000234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
-        <v>1395</v>
+        <v>1821</v>
       </c>
       <c r="N14" s="7">
-        <v>1501891</v>
+        <v>1903575</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,153 +3963,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>693</v>
+        <v>928</v>
       </c>
       <c r="D15" s="7">
-        <v>755689</v>
+        <v>933362</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>734</v>
+        <v>958</v>
       </c>
       <c r="I15" s="7">
-        <v>782979</v>
+        <v>1042738</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1427</v>
+        <v>1886</v>
       </c>
       <c r="N15" s="7">
-        <v>1538668</v>
+        <v>1976100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>30022</v>
+        <v>82158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>42504</v>
+        <v>106916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="N16" s="7">
-        <v>72525</v>
+        <v>189073</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>898</v>
+        <v>3141</v>
       </c>
       <c r="D17" s="7">
-        <v>903340</v>
+        <v>3303151</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
-        <v>923</v>
+        <v>3246</v>
       </c>
       <c r="I17" s="7">
-        <v>1000234</v>
+        <v>3432664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
-        <v>1821</v>
+        <v>6387</v>
       </c>
       <c r="N17" s="7">
-        <v>1903575</v>
+        <v>6735817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,217 +4118,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>928</v>
+        <v>3223</v>
       </c>
       <c r="D18" s="7">
-        <v>933362</v>
+        <v>3385309</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>958</v>
+        <v>3333</v>
       </c>
       <c r="I18" s="7">
-        <v>1042738</v>
+        <v>3539580</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1886</v>
+        <v>6556</v>
       </c>
       <c r="N18" s="7">
-        <v>1976100</v>
+        <v>6924890</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7">
-        <v>82158</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H19" s="7">
-        <v>87</v>
-      </c>
-      <c r="I19" s="7">
-        <v>106916</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="M19" s="7">
-        <v>169</v>
-      </c>
-      <c r="N19" s="7">
-        <v>189073</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3141</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3303151</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3246</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3432664</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6387</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6735817</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3223</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385309</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3333</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3539580</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6556</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6924890</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4824,8 +4185,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0537C22B-4225-4AEF-85C5-508180FC3542}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C77B9C3-8852-460F-B7FE-EDBA65D9912B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4841,7 +4202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4942,100 +4303,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>10117</v>
+        <v>40006</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="I4" s="7">
-        <v>11818</v>
+        <v>47512</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="N4" s="7">
-        <v>21935</v>
+        <v>87518</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>668</v>
       </c>
       <c r="D5" s="7">
-        <v>91865</v>
+        <v>594969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
-        <v>213</v>
+        <v>1126</v>
       </c>
       <c r="I5" s="7">
-        <v>118915</v>
+        <v>677818</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
-        <v>316</v>
+        <v>1794</v>
       </c>
       <c r="N5" s="7">
-        <v>210780</v>
+        <v>1272787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,153 +4405,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634975</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1970</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>31341</v>
+        <v>35255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>39091</v>
+        <v>49385</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>70432</v>
+        <v>84639</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>565</v>
+        <v>920</v>
       </c>
       <c r="D8" s="7">
-        <v>517983</v>
+        <v>1157609</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
-        <v>913</v>
+        <v>1423</v>
       </c>
       <c r="I8" s="7">
-        <v>580876</v>
+        <v>909266</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
-        <v>1478</v>
+        <v>2343</v>
       </c>
       <c r="N8" s="7">
-        <v>1098859</v>
+        <v>2066877</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,153 +4560,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549324</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1609</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169291</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>36311</v>
+        <v>26717</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35001</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="7">
         <v>94</v>
       </c>
-      <c r="I10" s="7">
-        <v>54111</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M10" s="7">
-        <v>138</v>
-      </c>
       <c r="N10" s="7">
-        <v>90422</v>
+        <v>61719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>920</v>
+        <v>644</v>
       </c>
       <c r="D11" s="7">
-        <v>1002937</v>
+        <v>677963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
-        <v>1423</v>
+        <v>985</v>
       </c>
       <c r="I11" s="7">
-        <v>1005968</v>
+        <v>898365</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="M11" s="7">
-        <v>2343</v>
+        <v>1629</v>
       </c>
       <c r="N11" s="7">
-        <v>2008905</v>
+        <v>1576327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,49 +4715,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,100 +4768,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>28278</v>
+        <v>47072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>37858</v>
+        <v>66832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="N13" s="7">
-        <v>66136</v>
+        <v>113903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>644</v>
+        <v>944</v>
       </c>
       <c r="D14" s="7">
-        <v>700494</v>
+        <v>879127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
-        <v>985</v>
+        <v>1446</v>
       </c>
       <c r="I14" s="7">
-        <v>836513</v>
+        <v>1026841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
-        <v>1629</v>
+        <v>2390</v>
       </c>
       <c r="N14" s="7">
-        <v>1537006</v>
+        <v>1905968</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,153 +4870,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926199</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1093673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019871</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="D16" s="7">
-        <v>49335</v>
+        <v>149050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>385</v>
       </c>
       <c r="I16" s="7">
-        <v>76493</v>
+        <v>198729</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
-        <v>175</v>
+        <v>583</v>
       </c>
       <c r="N16" s="7">
-        <v>125828</v>
+        <v>347779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>944</v>
+        <v>3176</v>
       </c>
       <c r="D17" s="7">
-        <v>915402</v>
+        <v>3309668</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>1446</v>
+        <v>4980</v>
       </c>
       <c r="I17" s="7">
-        <v>1072576</v>
+        <v>3512291</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
-        <v>2390</v>
+        <v>8156</v>
       </c>
       <c r="N17" s="7">
-        <v>1987978</v>
+        <v>6821959</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,217 +5025,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>964737</v>
+        <v>3458718</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5365</v>
       </c>
       <c r="I18" s="7">
-        <v>1149069</v>
+        <v>3711020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8739</v>
       </c>
       <c r="N18" s="7">
-        <v>2113806</v>
+        <v>7169738</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>198</v>
-      </c>
-      <c r="D19" s="7">
-        <v>155384</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H19" s="7">
-        <v>385</v>
-      </c>
-      <c r="I19" s="7">
-        <v>219369</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M19" s="7">
-        <v>583</v>
-      </c>
-      <c r="N19" s="7">
-        <v>374753</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3176</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3228680</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4980</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3614849</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8156</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6843529</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384064</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5365</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3834218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8739</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7218282</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
